--- a/caso_estudo.xlsx
+++ b/caso_estudo.xlsx
@@ -2726,7 +2726,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2737,6 +2737,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -2770,13 +2776,13 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
@@ -3099,7 +3105,7 @@
     <col min="4" max="4" style="4" width="10.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3113,7 +3119,7 @@
         <v>7</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="19.5">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3127,7 +3133,7 @@
         <v>18</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3141,7 +3147,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="19.5">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3155,7 +3161,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="19.5">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3169,7 +3175,7 @@
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="19.5">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3183,7 +3189,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="19.5">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3197,7 +3203,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="19.5">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3211,7 +3217,7 @@
         <v>22</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="19.5">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3225,7 +3231,7 @@
         <v>37</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="19.5">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3239,7 +3245,7 @@
         <v>50</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="19.5">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3253,7 +3259,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="19.5">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3267,7 +3273,7 @@
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="19.5">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3281,7 +3287,7 @@
         <v>34</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="19.5">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3295,7 +3301,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="19.5">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3309,7 +3315,7 @@
         <v>32</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="19.5">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3323,7 +3329,7 @@
         <v>27</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="19.5">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3337,7 +3343,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="19.5">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3351,7 +3357,7 @@
         <v>20</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="19.5">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3365,7 +3371,7 @@
         <v>36</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="19.5">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -3379,7 +3385,7 @@
         <v>28</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="19.5">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3393,7 +3399,7 @@
         <v>42</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="19.5">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -3407,7 +3413,7 @@
         <v>31</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="19.5">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -3421,7 +3427,7 @@
         <v>24</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="19.5">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -3435,7 +3441,7 @@
         <v>25</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="19.5">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -3449,7 +3455,7 @@
         <v>47</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="16.5">
+    <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="19.5">
       <c r="A26" s="3">
         <v>25</v>
       </c>
